--- a/biology/Médecine/Hubert_Jules_Taillefer/Hubert_Jules_Taillefer.xlsx
+++ b/biology/Médecine/Hubert_Jules_Taillefer/Hubert_Jules_Taillefer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hubert Jules Taillefer, né le 27 juin 1779 à Paris et mort le 25 janvier 1866 dans la même ville[1], est un médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hubert Jules Taillefer, né le 27 juin 1779 à Paris et mort le 25 janvier 1866 dans la même ville, est un médecin français.
 Il participa à l'expédition vers les Terres australes que conduisit Nicolas Baudin au départ du Havre à compter du 19 octobre 1800, en tant qu'officier de santé de 2e classe. Il fait partie des surnuméraires à bord du Géographe et il est chargé plus spécialement de surveiller la qualité de l'alimentation des équipages. Il ne fait pas partie de l'état-major, comme les autres médecins. Il n'a que vingt-et-un ans au départ. Il a laissé son nom à l'isthme Taillefer, nommé par Baudin en 1801, mais aussi à l'île Taillefer, au large de la Tasmanie.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de la Légion d'honneur (1814)[2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur (1814)</t>
         </is>
       </c>
     </row>
